--- a/Fan's project/paper file/阅读论文列表.xlsx
+++ b/Fan's project/paper file/阅读论文列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="6225" windowHeight="7515"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>来自主题</t>
   </si>
@@ -97,7 +97,7 @@
     <t>http://pages.cs.wisc.edu/~anhai/papers1/deepmatcher-sigmod18.pdf</t>
   </si>
   <si>
-    <t>在读</t>
+    <t>已读</t>
   </si>
   <si>
     <t>review</t>
@@ -368,8 +368,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -397,21 +397,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,6 +434,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -441,7 +456,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +465,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,37 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,11 +517,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -539,187 +539,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,54 +730,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -799,8 +751,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,6 +764,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,6 +797,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -838,145 +838,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,8 +1320,8 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1498,7 +1498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>38</v>
@@ -1506,11 +1506,17 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1946,6 +1952,7 @@
     <hyperlink ref="G7" r:id="rId31" display="review"/>
     <hyperlink ref="D30" r:id="rId32" display="Snorkel: rapid training data creation with weak supervision"/>
     <hyperlink ref="G30" r:id="rId33" display="review"/>
+    <hyperlink ref="G12" r:id="rId34" display="review"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Fan's project/paper file/阅读论文列表.xlsx
+++ b/Fan's project/paper file/阅读论文列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="16035" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>来自主题</t>
   </si>
@@ -366,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -397,29 +397,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -427,7 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,22 +433,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,22 +449,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,16 +470,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,187 +539,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,21 +748,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -783,17 +787,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,9 +813,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,28 +838,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,112 +871,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,8 +1320,8 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1519,7 +1519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>41</v>
@@ -1532,6 +1532,12 @@
       </c>
       <c r="E13" t="s">
         <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1542,7 +1548,7 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E14" t="s">
@@ -1953,6 +1959,7 @@
     <hyperlink ref="D30" r:id="rId32" display="Snorkel: rapid training data creation with weak supervision"/>
     <hyperlink ref="G30" r:id="rId33" display="review"/>
     <hyperlink ref="G12" r:id="rId34" display="review"/>
+    <hyperlink ref="G13" r:id="rId35" display="review"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
